--- a/figures/PPA.xlsx
+++ b/figures/PPA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://levylab-my.sharepoint.com/personal/akash_levy_365_levylab_org/Documents/Documents/Research/Writing/NEMS CGRA ASP-DAC 2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akashlevy/Documents/NEM-Relay-CAD/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="521" documentId="8_{655A2804-2553-C043-94D4-54BC596DD0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BE85A3A-8432-B14C-8348-EB73026C48E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBAEDEB-2174-AE4A-A2D9-6DB5DFBBBED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{4B8004C3-4F04-8948-99E3-8ED7038A9C13}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{4B8004C3-4F04-8948-99E3-8ED7038A9C13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
   <si>
     <t>CMOS</t>
   </si>
@@ -161,16 +161,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1377,15 +1377,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3180,10 +3180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951DB8D2-0273-2745-B4A8-72F558841444}">
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3280,12 +3280,12 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -3307,7 +3307,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -3362,7 +3362,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9">
@@ -3371,7 +3371,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="7"/>
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -3394,7 +3394,7 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="7"/>
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -3473,7 +3473,7 @@
         <f>X11-SUM(T11:V11)</f>
         <v>2.9125099999999959E-2</v>
       </c>
-      <c r="X11" s="7">
+      <c r="X11" s="4">
         <v>0.46050000000000002</v>
       </c>
     </row>
@@ -3512,12 +3512,12 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
+      <c r="A23" s="7"/>
       <c r="B23" t="s">
         <v>15</v>
       </c>
@@ -3539,7 +3539,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
+      <c r="A24" s="7"/>
       <c r="B24" t="s">
         <v>16</v>
       </c>
@@ -3584,12 +3584,12 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
+      <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>15</v>
       </c>
@@ -3611,7 +3611,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
+      <c r="A30" s="7"/>
       <c r="B30" t="s">
         <v>16</v>
       </c>
@@ -3632,8 +3632,84 @@
         <v>6.2836056528589881E-2</v>
       </c>
     </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="7"/>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="7"/>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="7"/>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="7"/>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
     <mergeCell ref="O1:S1"/>
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="A25:A27"/>

--- a/figures/PPA.xlsx
+++ b/figures/PPA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akashlevy/Documents/NEM-Relay-CAD/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBAEDEB-2174-AE4A-A2D9-6DB5DFBBBED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA2902C-573A-6B42-A0E0-2414269599EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{4B8004C3-4F04-8948-99E3-8ED7038A9C13}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{4B8004C3-4F04-8948-99E3-8ED7038A9C13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,13 +163,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -231,7 +231,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -321,7 +321,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -411,7 +411,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -501,7 +501,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -591,7 +593,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -697,10 +701,7 @@
             <a:pPr>
               <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -784,10 +785,7 @@
           <a:pPr>
             <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -839,12 +837,9 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -1378,13 +1373,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1856,7 +1851,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:effectLst>
                 <a:glow rad="127000">
@@ -1868,7 +1863,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -1896,7 +1891,7 @@
           </a:pPr>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
             <a:effectLst>
               <a:glow rad="127000">
@@ -2339,7 +2334,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:effectLst>
                 <a:glow rad="127000">
@@ -2353,7 +2348,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
             <a:effectLst>
               <a:glow rad="127000">
@@ -2387,7 +2382,7 @@
           </a:pPr>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
             <a:effectLst>
               <a:glow rad="127000">
@@ -2708,7 +2703,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:srgbClr val="595959"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
             </a:rPr>
@@ -2819,7 +2814,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:srgbClr val="595959"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
             </a:rPr>
@@ -3182,8 +3177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951DB8D2-0273-2745-B4A8-72F558841444}">
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="133" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3195,27 +3190,27 @@
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="6" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -3280,12 +3275,12 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -3307,7 +3302,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -3333,7 +3328,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G6">
@@ -3342,7 +3337,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -3352,7 +3347,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -3362,7 +3357,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G9">
@@ -3371,7 +3366,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -3394,7 +3389,7 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -3512,12 +3507,12 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
+      <c r="A23" s="5"/>
       <c r="B23" t="s">
         <v>15</v>
       </c>
@@ -3539,7 +3534,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
+      <c r="A24" s="5"/>
       <c r="B24" t="s">
         <v>16</v>
       </c>
@@ -3561,12 +3556,12 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
+      <c r="A26" s="6"/>
       <c r="B26" t="s">
         <v>15</v>
       </c>
@@ -3575,7 +3570,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
+      <c r="A27" s="6"/>
       <c r="B27" t="s">
         <v>16</v>
       </c>
@@ -3584,12 +3579,12 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
+      <c r="A29" s="5"/>
       <c r="B29" t="s">
         <v>15</v>
       </c>
@@ -3611,7 +3606,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
+      <c r="A30" s="5"/>
       <c r="B30" t="s">
         <v>16</v>
       </c>
@@ -3655,52 +3650,52 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
+      <c r="A44" s="5"/>
       <c r="B44" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
+      <c r="A45" s="5"/>
       <c r="B45" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
+      <c r="A47" s="6"/>
       <c r="B47" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
+      <c r="A48" s="6"/>
       <c r="B48" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
+      <c r="A50" s="5"/>
       <c r="B50" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
+      <c r="A51" s="5"/>
       <c r="B51" t="s">
         <v>16</v>
       </c>
